--- a/portfolio/프로젝트 개발일정표.xlsx
+++ b/portfolio/프로젝트 개발일정표.xlsx
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
-  <si>
-    <t>업무 분장</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>번호</t>
   </si>
@@ -98,18 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인기능페이지2(MZ 비교분석) 화면 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인/회원관리 화면개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의하기 게시판 화면개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,24 +118,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업기간
-(공휴일 제외)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 프로젝트 결과 발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 만족도 분석하기 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MZ 통계 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 게시판 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,19 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계 - 회원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 수정 및 보충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이준형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web/Spring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +147,74 @@
   </si>
   <si>
     <t>빅데이터분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 추가 수집 및 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 - 회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계 - 사용자 만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능페이지2(MZ 비교분석) 화면 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능페이지2(MZ 비교분석) 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 별 세션 확인 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 게시판 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 게시판 화면 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원관리 화면 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능페이지1(나의 만족도분석) 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 코드 Spring Framework 환경 변환 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet
+&amp;
+JSP
+Spring
+Framework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,18 +322,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFEF1CC"/>
         <bgColor rgb="FFFEF1CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EDFE"/>
-        <bgColor rgb="FFE2EDFE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E6FC"/>
-        <bgColor rgb="FFD9E6FC"/>
       </patternFill>
     </fill>
     <fill>
@@ -461,88 +473,25 @@
         <bgColor rgb="FFD9E6FC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8F2FE"/>
+        <bgColor rgb="FFD9E6FC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8F2FE"/>
+        <bgColor rgb="FFE2EDFE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,30 +563,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -649,19 +574,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -679,13 +754,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -703,12 +778,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,19 +787,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -742,181 +811,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,6 +941,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4E8FE"/>
+      <color rgb="FFD8F2FE"/>
+      <color rgb="FFE8F9FE"/>
+      <color rgb="FFEEE2FE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1137,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="19.5" customHeight="1"/>
@@ -1147,7 +1170,7 @@
     <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50" style="2" customWidth="1"/>
     <col min="6" max="7" width="13" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="122" width="2.7109375" style="2" customWidth="1"/>
@@ -1155,288 +1178,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
-        <v>23</v>
+      <c r="E1" s="54" t="s">
+        <v>5</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="G1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="47">
+        <v>2023</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+      <c r="CA1" s="30"/>
+      <c r="CB1" s="30"/>
+      <c r="CC1" s="30"/>
+      <c r="CD1" s="30"/>
+      <c r="CE1" s="30"/>
+      <c r="CF1" s="30"/>
+      <c r="CG1" s="30"/>
+      <c r="CH1" s="30"/>
+      <c r="CI1" s="30"/>
+      <c r="CJ1" s="30"/>
+      <c r="CK1" s="30"/>
+      <c r="CL1" s="30"/>
+      <c r="CM1" s="30"/>
+      <c r="CN1" s="30"/>
+      <c r="CO1" s="30"/>
+      <c r="CP1" s="30"/>
+      <c r="CQ1" s="30"/>
+      <c r="CR1" s="30"/>
+      <c r="CS1" s="30"/>
+      <c r="CT1" s="30"/>
+      <c r="CU1" s="30"/>
+      <c r="CV1" s="30"/>
+      <c r="CW1" s="30"/>
+      <c r="CX1" s="30"/>
+      <c r="CY1" s="30"/>
+      <c r="CZ1" s="30"/>
+      <c r="DA1" s="30"/>
+      <c r="DB1" s="30"/>
+      <c r="DC1" s="30"/>
+      <c r="DD1" s="30"/>
+      <c r="DE1" s="30"/>
+      <c r="DF1" s="30"/>
+      <c r="DG1" s="30"/>
+      <c r="DH1" s="30"/>
+      <c r="DI1" s="30"/>
+      <c r="DJ1" s="30"/>
+      <c r="DK1" s="30"/>
+      <c r="DL1" s="30"/>
+      <c r="DM1" s="30"/>
+      <c r="DN1" s="30"/>
+      <c r="DO1" s="30"/>
+      <c r="DP1" s="30"/>
+      <c r="DQ1" s="30"/>
+      <c r="DR1" s="30"/>
+    </row>
+    <row r="2" spans="1:122" ht="19.5" customHeight="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="31">
+        <v>5</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="30">
         <v>6</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="29">
-        <v>2023</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
-      <c r="BL1" s="27"/>
-      <c r="BM1" s="27"/>
-      <c r="BN1" s="27"/>
-      <c r="BO1" s="27"/>
-      <c r="BP1" s="27"/>
-      <c r="BQ1" s="27"/>
-      <c r="BR1" s="27"/>
-      <c r="BS1" s="27"/>
-      <c r="BT1" s="27"/>
-      <c r="BU1" s="27"/>
-      <c r="BV1" s="27"/>
-      <c r="BW1" s="27"/>
-      <c r="BX1" s="27"/>
-      <c r="BY1" s="27"/>
-      <c r="BZ1" s="27"/>
-      <c r="CA1" s="27"/>
-      <c r="CB1" s="27"/>
-      <c r="CC1" s="27"/>
-      <c r="CD1" s="27"/>
-      <c r="CE1" s="27"/>
-      <c r="CF1" s="27"/>
-      <c r="CG1" s="27"/>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27"/>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27"/>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27"/>
-      <c r="CU1" s="27"/>
-      <c r="CV1" s="27"/>
-      <c r="CW1" s="27"/>
-      <c r="CX1" s="27"/>
-      <c r="CY1" s="27"/>
-      <c r="CZ1" s="27"/>
-      <c r="DA1" s="27"/>
-      <c r="DB1" s="27"/>
-      <c r="DC1" s="27"/>
-      <c r="DD1" s="27"/>
-      <c r="DE1" s="27"/>
-      <c r="DF1" s="27"/>
-      <c r="DG1" s="27"/>
-      <c r="DH1" s="27"/>
-      <c r="DI1" s="27"/>
-      <c r="DJ1" s="27"/>
-      <c r="DK1" s="27"/>
-      <c r="DL1" s="27"/>
-      <c r="DM1" s="27"/>
-      <c r="DN1" s="27"/>
-      <c r="DO1" s="27"/>
-      <c r="DP1" s="27"/>
-      <c r="DQ1" s="27"/>
-      <c r="DR1" s="27"/>
-    </row>
-    <row r="2" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="28">
-        <v>5</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="27">
-        <v>6</v>
-      </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="27">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="30">
         <v>7</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="27">
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="30">
         <v>8</v>
       </c>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="28"/>
-      <c r="CD2" s="28"/>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="28"/>
-      <c r="CN2" s="28"/>
-      <c r="CO2" s="28"/>
-      <c r="CP2" s="28"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28"/>
-      <c r="CS2" s="28"/>
-      <c r="CT2" s="28"/>
-      <c r="CU2" s="28"/>
-      <c r="CV2" s="28"/>
-      <c r="CW2" s="28"/>
-      <c r="CX2" s="28"/>
-      <c r="CY2" s="28"/>
-      <c r="CZ2" s="28"/>
-      <c r="DA2" s="28"/>
-      <c r="DB2" s="28"/>
-      <c r="DC2" s="28"/>
-      <c r="DD2" s="28"/>
-      <c r="DE2" s="27">
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
+      <c r="CO2" s="31"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="31"/>
+      <c r="CV2" s="31"/>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="30">
         <v>9</v>
       </c>
-      <c r="DF2" s="27"/>
-      <c r="DG2" s="27"/>
-      <c r="DH2" s="27"/>
-      <c r="DI2" s="27"/>
-      <c r="DJ2" s="27"/>
-      <c r="DK2" s="27"/>
-      <c r="DL2" s="27"/>
-      <c r="DM2" s="27"/>
-      <c r="DN2" s="27"/>
-      <c r="DO2" s="27"/>
-      <c r="DP2" s="27"/>
-      <c r="DQ2" s="27"/>
-      <c r="DR2" s="27"/>
+      <c r="DF2" s="30"/>
+      <c r="DG2" s="30"/>
+      <c r="DH2" s="30"/>
+      <c r="DI2" s="30"/>
+      <c r="DJ2" s="30"/>
+      <c r="DK2" s="30"/>
+      <c r="DL2" s="30"/>
+      <c r="DM2" s="30"/>
+      <c r="DN2" s="30"/>
+      <c r="DO2" s="30"/>
+      <c r="DP2" s="30"/>
+      <c r="DQ2" s="30"/>
+      <c r="DR2" s="30"/>
     </row>
     <row r="3" spans="1:122" s="26" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="20">
         <v>23</v>
       </c>
@@ -1781,16 +1804,16 @@
       </c>
     </row>
     <row r="4" spans="1:122" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>37</v>
+      <c r="A4" s="57" t="s">
+        <v>26</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1907,27 +1930,27 @@
       <c r="DR4" s="20"/>
     </row>
     <row r="5" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>4</v>
+      <c r="A5" s="58" t="s">
+        <v>3</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
-        <v>20</v>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58" t="s">
+        <v>16</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="59">
         <v>1</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>7</v>
+      <c r="E5" s="59" t="s">
+        <v>6</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="60">
         <v>45069</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="60">
         <v>45071</v>
       </c>
-      <c r="H5" s="48">
-        <f t="shared" ref="H5:H28" si="0">DATEDIF(F5, G5, "D")+1</f>
+      <c r="H5" s="61">
+        <f t="shared" ref="H5:H19" si="0">DATEDIF(F5, G5, "D")+1</f>
         <v>3</v>
       </c>
       <c r="I5" s="3"/>
@@ -2019,22 +2042,22 @@
       <c r="DR5" s="19"/>
     </row>
     <row r="6" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="46">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59">
         <v>2</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>8</v>
+      <c r="E6" s="59" t="s">
+        <v>7</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="60">
         <v>45071</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="60">
         <v>45072</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="61">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2127,22 +2150,22 @@
       <c r="DR6" s="19"/>
     </row>
     <row r="7" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="46">
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59">
         <v>3</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>9</v>
+      <c r="E7" s="59" t="s">
+        <v>8</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="60">
         <v>45076</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="60">
         <v>45076</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2235,24 +2258,24 @@
       <c r="DR7" s="19"/>
     </row>
     <row r="8" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="46" t="s">
-        <v>21</v>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
+        <v>17</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="59">
         <v>4</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>10</v>
+      <c r="E8" s="59" t="s">
+        <v>9</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="60">
         <v>45077</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="60">
         <v>45080</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2345,24 +2368,24 @@
       <c r="DR8" s="19"/>
     </row>
     <row r="9" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="46" t="s">
-        <v>22</v>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
+        <v>18</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="59">
         <v>5</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>11</v>
+      <c r="E9" s="59" t="s">
+        <v>10</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="60">
         <v>45082</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="60">
         <v>45086</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2455,24 +2478,24 @@
       <c r="DR9" s="19"/>
     </row>
     <row r="10" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55" t="s">
-        <v>20</v>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>16</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="59">
         <v>6</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>27</v>
+      <c r="E10" s="59" t="s">
+        <v>22</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="60">
         <v>45100</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="60">
         <v>45100</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2565,26 +2588,26 @@
       <c r="DR10" s="19"/>
     </row>
     <row r="11" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A11" s="56" t="s">
-        <v>40</v>
+      <c r="A11" s="62" t="s">
+        <v>29</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="57" t="s">
-        <v>20</v>
+      <c r="B11" s="55"/>
+      <c r="C11" s="63" t="s">
+        <v>16</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="63">
         <v>7</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>12</v>
+      <c r="E11" s="63" t="s">
+        <v>11</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="64">
         <v>45075</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="64">
         <v>45080</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="65">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2677,24 +2700,24 @@
       <c r="DR11" s="19"/>
     </row>
     <row r="12" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="58" t="s">
-        <v>24</v>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="63">
         <v>8</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>25</v>
+      <c r="E12" s="63" t="s">
+        <v>21</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="64">
         <v>45084</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="64">
         <v>45092</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2814,24 +2837,24 @@
       <c r="DR12" s="19"/>
     </row>
     <row r="13" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="58" t="s">
-        <v>21</v>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="63" t="s">
+        <v>17</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="63">
         <v>9</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>13</v>
+      <c r="E13" s="63" t="s">
+        <v>12</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="64">
         <v>45092</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="64">
         <v>45094</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2951,24 +2974,24 @@
       <c r="DR13" s="19"/>
     </row>
     <row r="14" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="58" t="s">
-        <v>24</v>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="63" t="s">
+        <v>20</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="63">
         <v>10</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>14</v>
+      <c r="E14" s="63" t="s">
+        <v>13</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="64">
         <v>45096</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="64">
         <v>45099</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3088,26 +3111,26 @@
       <c r="DR14" s="19"/>
     </row>
     <row r="15" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A15" s="61" t="s">
-        <v>5</v>
+      <c r="A15" s="66" t="s">
+        <v>4</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63" t="s">
-        <v>24</v>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67" t="s">
+        <v>20</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="67">
         <v>11</v>
       </c>
-      <c r="E15" s="63" t="s">
-        <v>16</v>
+      <c r="E15" s="67" t="s">
+        <v>15</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="68">
         <v>45092</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="68">
         <v>45093</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="69">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3228,23 +3251,23 @@
     </row>
     <row r="16" spans="1:122" ht="19.5" customHeight="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="63" t="s">
-        <v>22</v>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67" t="s">
+        <v>18</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="67">
         <v>12</v>
       </c>
-      <c r="E16" s="63" t="s">
-        <v>15</v>
+      <c r="E16" s="67" t="s">
+        <v>14</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="68">
         <v>45088</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="68">
         <v>45091</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3365,23 +3388,23 @@
     </row>
     <row r="17" spans="1:122" ht="19.5" customHeight="1">
       <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="63" t="s">
-        <v>22</v>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67" t="s">
+        <v>18</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="67">
         <v>13</v>
       </c>
-      <c r="E17" s="63" t="s">
-        <v>17</v>
+      <c r="E17" s="67" t="s">
+        <v>35</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="68">
         <v>45092</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="68">
         <v>45095</v>
       </c>
-      <c r="H17" s="65">
+      <c r="H17" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3502,23 +3525,23 @@
     </row>
     <row r="18" spans="1:122" ht="19.5" customHeight="1">
       <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="63" t="s">
-        <v>21</v>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67" t="s">
+        <v>17</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="67">
         <v>14</v>
       </c>
-      <c r="E18" s="63" t="s">
-        <v>19</v>
+      <c r="E18" s="67" t="s">
+        <v>39</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="68">
         <v>45089</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="68">
         <v>45092</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="69">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3639,23 +3662,23 @@
     </row>
     <row r="19" spans="1:122" ht="19.5" customHeight="1">
       <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68" t="s">
-        <v>21</v>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67" t="s">
+        <v>17</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="67">
         <v>15</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>18</v>
+      <c r="E19" s="67" t="s">
+        <v>40</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="68">
         <v>45094</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="68">
         <v>45096</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3775,16 +3798,16 @@
       <c r="DR19" s="19"/>
     </row>
     <row r="20" spans="1:122" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A20" s="71" t="s">
-        <v>38</v>
+      <c r="A20" s="53" t="s">
+        <v>27</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -3901,27 +3924,27 @@
       <c r="DR20" s="19"/>
     </row>
     <row r="21" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A21" s="72" t="s">
-        <v>36</v>
+      <c r="A21" s="34" t="s">
+        <v>44</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
-        <v>35</v>
+      <c r="B21" s="42"/>
+      <c r="C21" s="32" t="s">
+        <v>25</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="35">
         <v>16</v>
       </c>
-      <c r="E21" s="74" t="s">
-        <v>31</v>
+      <c r="E21" s="36" t="s">
+        <v>23</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="37">
         <v>45119</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="37">
         <v>45120</v>
       </c>
-      <c r="H21" s="76">
-        <f t="shared" si="0"/>
+      <c r="H21" s="48">
+        <f>DATEDIF(F21, G21, "D")+1</f>
         <v>2</v>
       </c>
       <c r="I21" s="1"/>
@@ -3992,24 +4015,24 @@
       <c r="BV21" s="10"/>
     </row>
     <row r="22" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="38">
         <v>17</v>
       </c>
-      <c r="E22" s="79" t="s">
-        <v>28</v>
+      <c r="E22" s="39" t="s">
+        <v>31</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="40">
         <v>45121</v>
       </c>
-      <c r="G22" s="80">
-        <v>45124</v>
+      <c r="G22" s="40">
+        <v>45125</v>
       </c>
-      <c r="H22" s="81">
-        <f>DATEDIF(F22, G22, "D")+1</f>
-        <v>4</v>
+      <c r="H22" s="48">
+        <f t="shared" ref="H21:H22" si="1">DATEDIF(F22, G22, "D")+1</f>
+        <v>5</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -4067,7 +4090,7 @@
       <c r="BJ22" s="22"/>
       <c r="BK22" s="22"/>
       <c r="BL22" s="22"/>
-      <c r="BM22" s="19"/>
+      <c r="BM22" s="22"/>
       <c r="BN22" s="19"/>
       <c r="BO22" s="19"/>
       <c r="BP22" s="10"/>
@@ -4079,23 +4102,23 @@
       <c r="BV22" s="10"/>
     </row>
     <row r="23" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78">
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="38">
         <v>18</v>
       </c>
-      <c r="E23" s="79" t="s">
-        <v>29</v>
+      <c r="E23" s="39" t="s">
+        <v>30</v>
       </c>
-      <c r="F23" s="80">
-        <v>45125</v>
+      <c r="F23" s="40">
+        <v>45126</v>
       </c>
-      <c r="G23" s="80">
-        <v>45127</v>
+      <c r="G23" s="40">
+        <v>45128</v>
       </c>
-      <c r="H23" s="81">
-        <f t="shared" ref="H23:H24" si="1">DATEDIF(F23, G23, "D")+1</f>
+      <c r="H23" s="48">
+        <f>DATEDIF(F23, G23, "D")+1</f>
         <v>3</v>
       </c>
       <c r="I23" s="1"/>
@@ -4154,10 +4177,9 @@
       <c r="BJ23" s="19"/>
       <c r="BK23" s="19"/>
       <c r="BL23" s="19"/>
-      <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
       <c r="BO23" s="23"/>
-      <c r="BP23" s="10"/>
+      <c r="BP23" s="23"/>
       <c r="BQ23" s="10"/>
       <c r="BR23" s="10"/>
       <c r="BS23" s="10"/>
@@ -4166,24 +4188,24 @@
       <c r="BV23" s="10"/>
     </row>
     <row r="24" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="38">
         <v>19</v>
       </c>
-      <c r="E24" s="79" t="s">
-        <v>32</v>
+      <c r="E24" s="39" t="s">
+        <v>42</v>
       </c>
-      <c r="F24" s="80">
-        <v>45127</v>
+      <c r="F24" s="40">
+        <v>45131</v>
       </c>
-      <c r="G24" s="80">
-        <v>45129</v>
+      <c r="G24" s="40">
+        <v>45135</v>
       </c>
-      <c r="H24" s="81">
-        <f t="shared" si="1"/>
-        <v>3</v>
+      <c r="H24" s="48">
+        <f t="shared" ref="H24:H35" si="2">DATEDIF(F24, G24, "D")+1</f>
+        <v>5</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4243,34 +4265,32 @@
       <c r="BL24" s="19"/>
       <c r="BM24" s="19"/>
       <c r="BN24" s="19"/>
-      <c r="BO24" s="23"/>
-      <c r="BP24" s="23"/>
-      <c r="BQ24" s="23"/>
       <c r="BR24" s="10"/>
-      <c r="BS24" s="10"/>
-      <c r="BT24" s="10"/>
-      <c r="BU24" s="10"/>
-      <c r="BV24" s="10"/>
+      <c r="BS24" s="23"/>
+      <c r="BT24" s="23"/>
+      <c r="BU24" s="23"/>
+      <c r="BV24" s="23"/>
+      <c r="BW24" s="23"/>
     </row>
     <row r="25" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="38">
         <v>20</v>
       </c>
-      <c r="E25" s="79" t="s">
-        <v>33</v>
+      <c r="E25" s="39" t="s">
+        <v>34</v>
       </c>
-      <c r="F25" s="80">
-        <v>45128</v>
+      <c r="F25" s="40">
+        <v>45131</v>
       </c>
-      <c r="G25" s="80">
-        <v>45129</v>
+      <c r="G25" s="40">
+        <v>45131</v>
       </c>
-      <c r="H25" s="81">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="H25" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4331,32 +4351,32 @@
       <c r="BM25" s="19"/>
       <c r="BN25" s="19"/>
       <c r="BO25" s="19"/>
-      <c r="BP25" s="24"/>
-      <c r="BQ25" s="24"/>
+      <c r="BP25" s="27"/>
+      <c r="BQ25" s="27"/>
       <c r="BR25" s="10"/>
-      <c r="BS25" s="10"/>
+      <c r="BS25" s="24"/>
       <c r="BT25" s="10"/>
       <c r="BU25" s="10"/>
       <c r="BV25" s="10"/>
     </row>
     <row r="26" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="38">
         <v>21</v>
       </c>
-      <c r="E26" s="82" t="s">
-        <v>30</v>
+      <c r="E26" s="39" t="s">
+        <v>24</v>
       </c>
-      <c r="F26" s="83">
-        <v>45130</v>
+      <c r="F26" s="40">
+        <v>45138</v>
       </c>
-      <c r="G26" s="83">
-        <v>45131</v>
+      <c r="G26" s="40">
+        <v>45139</v>
       </c>
-      <c r="H26" s="84">
-        <f t="shared" si="0"/>
+      <c r="H26" s="48">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I26" s="1"/>
@@ -4420,30 +4440,30 @@
       <c r="BO26" s="19"/>
       <c r="BP26" s="10"/>
       <c r="BQ26" s="10"/>
-      <c r="BR26" s="24"/>
-      <c r="BS26" s="24"/>
       <c r="BT26" s="10"/>
       <c r="BU26" s="10"/>
       <c r="BV26" s="10"/>
+      <c r="BZ26" s="24"/>
+      <c r="CA26" s="24"/>
     </row>
     <row r="27" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="38">
         <v>22</v>
       </c>
-      <c r="E27" s="82" t="s">
-        <v>34</v>
+      <c r="E27" s="39" t="s">
+        <v>33</v>
       </c>
-      <c r="F27" s="83">
-        <v>45132</v>
+      <c r="F27" s="40">
+        <v>45138</v>
       </c>
-      <c r="G27" s="83">
-        <v>45132</v>
+      <c r="G27" s="40">
+        <v>45138</v>
       </c>
-      <c r="H27" s="84">
-        <f t="shared" si="0"/>
+      <c r="H27" s="48">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I27" s="1"/>
@@ -4509,28 +4529,29 @@
       <c r="BQ27" s="10"/>
       <c r="BR27" s="10"/>
       <c r="BS27" s="10"/>
-      <c r="BT27" s="25"/>
-      <c r="BU27" s="18"/>
+      <c r="BT27" s="27"/>
+      <c r="BU27" s="27"/>
       <c r="BV27" s="10"/>
+      <c r="CB27" s="24"/>
     </row>
     <row r="28" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="38">
         <v>23</v>
       </c>
-      <c r="E28" s="82" t="s">
-        <v>39</v>
+      <c r="E28" s="39" t="s">
+        <v>28</v>
       </c>
-      <c r="F28" s="83">
-        <v>45133</v>
+      <c r="F28" s="40">
+        <v>45140</v>
       </c>
-      <c r="G28" s="83">
-        <v>45133</v>
+      <c r="G28" s="40">
+        <v>45140</v>
       </c>
-      <c r="H28" s="84">
-        <f t="shared" si="0"/>
+      <c r="H28" s="48">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I28" s="1"/>
@@ -4592,19 +4613,33 @@
       <c r="BM28" s="1"/>
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
-      <c r="BU28" s="21"/>
+      <c r="BT28" s="27"/>
+      <c r="BU28" s="27"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="24"/>
+      <c r="CE28" s="24"/>
+      <c r="CF28" s="24"/>
     </row>
     <row r="29" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78">
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="38">
         <v>24</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="E29" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="40">
+        <v>45141</v>
+      </c>
+      <c r="G29" s="40">
+        <v>45144</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -4664,18 +4699,30 @@
       <c r="BM29" s="1"/>
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="CG29" s="24"/>
     </row>
     <row r="30" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78">
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="38">
         <v>25</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="E30" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="40">
+        <v>45145</v>
+      </c>
+      <c r="G30" s="40">
+        <v>45145</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -4735,18 +4782,29 @@
       <c r="BM30" s="1"/>
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
+      <c r="CH30" s="24"/>
+      <c r="CI30" s="24"/>
     </row>
     <row r="31" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="38">
         <v>26</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
+      <c r="E31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="40">
+        <v>45146</v>
+      </c>
+      <c r="G31" s="40">
+        <v>45147</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -4806,18 +4864,29 @@
       <c r="BM31" s="1"/>
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
+      <c r="CJ31" s="24"/>
+      <c r="CK31" s="24"/>
     </row>
     <row r="32" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78">
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="38">
         <v>27</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="E32" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45148</v>
+      </c>
+      <c r="G32" s="40">
+        <v>45149</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -4877,18 +4946,45 @@
       <c r="BM32" s="1"/>
       <c r="BN32" s="1"/>
       <c r="BO32" s="1"/>
+      <c r="CJ32" s="25"/>
+      <c r="CK32" s="25"/>
+      <c r="CL32" s="25"/>
+      <c r="CM32" s="25"/>
+      <c r="CN32" s="25"/>
+      <c r="CO32" s="25"/>
+      <c r="CP32" s="25"/>
+      <c r="CQ32" s="25"/>
+      <c r="CR32" s="25"/>
+      <c r="CS32" s="25"/>
+      <c r="CT32" s="25"/>
+      <c r="CU32" s="25"/>
+      <c r="CV32" s="25"/>
+      <c r="CW32" s="28"/>
+      <c r="CX32" s="28"/>
+      <c r="CY32" s="28"/>
+      <c r="CZ32" s="28"/>
+      <c r="DA32" s="28"/>
     </row>
     <row r="33" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="49">
         <v>28</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
+      <c r="E33" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="51">
+        <v>45148</v>
+      </c>
+      <c r="G33" s="51">
+        <v>45160</v>
+      </c>
+      <c r="H33" s="52">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -4950,16 +5046,14 @@
       <c r="BO33" s="1"/>
     </row>
     <row r="34" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78">
-        <v>29</v>
-      </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -5021,16 +5115,14 @@
       <c r="BO34" s="1"/>
     </row>
     <row r="35" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78">
-        <v>30</v>
-      </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="87"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -5092,14 +5184,14 @@
       <c r="BO35" s="1"/>
     </row>
     <row r="36" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -5161,14 +5253,14 @@
       <c r="BO36" s="1"/>
     </row>
     <row r="37" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -5230,14 +5322,14 @@
       <c r="BO37" s="1"/>
     </row>
     <row r="38" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -5299,14 +5391,14 @@
       <c r="BO38" s="1"/>
     </row>
     <row r="39" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5368,14 +5460,14 @@
       <c r="BO39" s="1"/>
     </row>
     <row r="40" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -5437,14 +5529,14 @@
       <c r="BO40" s="1"/>
     </row>
     <row r="41" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -5506,14 +5598,14 @@
       <c r="BO41" s="1"/>
     </row>
     <row r="42" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -70505,8 +70597,8 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C21:C35"/>
-    <mergeCell ref="A21:B35"/>
+    <mergeCell ref="A21:B33"/>
+    <mergeCell ref="C21:C33"/>
     <mergeCell ref="AV2:BZ2"/>
     <mergeCell ref="CA2:DD2"/>
     <mergeCell ref="DE2:DR2"/>

--- a/portfolio/프로젝트 개발일정표.xlsx
+++ b/portfolio/프로젝트 개발일정표.xlsx
@@ -170,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인기능페이지2(MZ 비교분석) 화면 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인기능페이지2(MZ 비교분석) 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지 별 세션 확인 기능 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +207,14 @@
   </si>
   <si>
     <t>업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능페이지2(MZ 통계 보기) 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능페이지2(MZ 통계 보기) 화면 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,24 +811,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,6 +832,51 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,22 +892,22 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,47 +919,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR983"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="19.5" customHeight="1"/>
@@ -1178,288 +1178,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>45</v>
+      <c r="A1" s="63" t="s">
+        <v>43</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="47">
+      <c r="I1" s="65">
         <v>2023</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
-      <c r="BE1" s="30"/>
-      <c r="BF1" s="30"/>
-      <c r="BG1" s="30"/>
-      <c r="BH1" s="30"/>
-      <c r="BI1" s="30"/>
-      <c r="BJ1" s="30"/>
-      <c r="BK1" s="30"/>
-      <c r="BL1" s="30"/>
-      <c r="BM1" s="30"/>
-      <c r="BN1" s="30"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="30"/>
-      <c r="BQ1" s="30"/>
-      <c r="BR1" s="30"/>
-      <c r="BS1" s="30"/>
-      <c r="BT1" s="30"/>
-      <c r="BU1" s="30"/>
-      <c r="BV1" s="30"/>
-      <c r="BW1" s="30"/>
-      <c r="BX1" s="30"/>
-      <c r="BY1" s="30"/>
-      <c r="BZ1" s="30"/>
-      <c r="CA1" s="30"/>
-      <c r="CB1" s="30"/>
-      <c r="CC1" s="30"/>
-      <c r="CD1" s="30"/>
-      <c r="CE1" s="30"/>
-      <c r="CF1" s="30"/>
-      <c r="CG1" s="30"/>
-      <c r="CH1" s="30"/>
-      <c r="CI1" s="30"/>
-      <c r="CJ1" s="30"/>
-      <c r="CK1" s="30"/>
-      <c r="CL1" s="30"/>
-      <c r="CM1" s="30"/>
-      <c r="CN1" s="30"/>
-      <c r="CO1" s="30"/>
-      <c r="CP1" s="30"/>
-      <c r="CQ1" s="30"/>
-      <c r="CR1" s="30"/>
-      <c r="CS1" s="30"/>
-      <c r="CT1" s="30"/>
-      <c r="CU1" s="30"/>
-      <c r="CV1" s="30"/>
-      <c r="CW1" s="30"/>
-      <c r="CX1" s="30"/>
-      <c r="CY1" s="30"/>
-      <c r="CZ1" s="30"/>
-      <c r="DA1" s="30"/>
-      <c r="DB1" s="30"/>
-      <c r="DC1" s="30"/>
-      <c r="DD1" s="30"/>
-      <c r="DE1" s="30"/>
-      <c r="DF1" s="30"/>
-      <c r="DG1" s="30"/>
-      <c r="DH1" s="30"/>
-      <c r="DI1" s="30"/>
-      <c r="DJ1" s="30"/>
-      <c r="DK1" s="30"/>
-      <c r="DL1" s="30"/>
-      <c r="DM1" s="30"/>
-      <c r="DN1" s="30"/>
-      <c r="DO1" s="30"/>
-      <c r="DP1" s="30"/>
-      <c r="DQ1" s="30"/>
-      <c r="DR1" s="30"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="59"/>
+      <c r="BG1" s="59"/>
+      <c r="BH1" s="59"/>
+      <c r="BI1" s="59"/>
+      <c r="BJ1" s="59"/>
+      <c r="BK1" s="59"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="59"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
+      <c r="BX1" s="59"/>
+      <c r="BY1" s="59"/>
+      <c r="BZ1" s="59"/>
+      <c r="CA1" s="59"/>
+      <c r="CB1" s="59"/>
+      <c r="CC1" s="59"/>
+      <c r="CD1" s="59"/>
+      <c r="CE1" s="59"/>
+      <c r="CF1" s="59"/>
+      <c r="CG1" s="59"/>
+      <c r="CH1" s="59"/>
+      <c r="CI1" s="59"/>
+      <c r="CJ1" s="59"/>
+      <c r="CK1" s="59"/>
+      <c r="CL1" s="59"/>
+      <c r="CM1" s="59"/>
+      <c r="CN1" s="59"/>
+      <c r="CO1" s="59"/>
+      <c r="CP1" s="59"/>
+      <c r="CQ1" s="59"/>
+      <c r="CR1" s="59"/>
+      <c r="CS1" s="59"/>
+      <c r="CT1" s="59"/>
+      <c r="CU1" s="59"/>
+      <c r="CV1" s="59"/>
+      <c r="CW1" s="59"/>
+      <c r="CX1" s="59"/>
+      <c r="CY1" s="59"/>
+      <c r="CZ1" s="59"/>
+      <c r="DA1" s="59"/>
+      <c r="DB1" s="59"/>
+      <c r="DC1" s="59"/>
+      <c r="DD1" s="59"/>
+      <c r="DE1" s="59"/>
+      <c r="DF1" s="59"/>
+      <c r="DG1" s="59"/>
+      <c r="DH1" s="59"/>
+      <c r="DI1" s="59"/>
+      <c r="DJ1" s="59"/>
+      <c r="DK1" s="59"/>
+      <c r="DL1" s="59"/>
+      <c r="DM1" s="59"/>
+      <c r="DN1" s="59"/>
+      <c r="DO1" s="59"/>
+      <c r="DP1" s="59"/>
+      <c r="DQ1" s="59"/>
+      <c r="DR1" s="59"/>
     </row>
     <row r="2" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="31">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="60">
         <v>5</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="30">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="59">
         <v>6</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="30">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="59">
         <v>7</v>
       </c>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="31"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-      <c r="BK2" s="31"/>
-      <c r="BL2" s="31"/>
-      <c r="BM2" s="31"/>
-      <c r="BN2" s="31"/>
-      <c r="BO2" s="31"/>
-      <c r="BP2" s="31"/>
-      <c r="BQ2" s="31"/>
-      <c r="BR2" s="31"/>
-      <c r="BS2" s="31"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="31"/>
-      <c r="BV2" s="31"/>
-      <c r="BW2" s="31"/>
-      <c r="BX2" s="31"/>
-      <c r="BY2" s="31"/>
-      <c r="BZ2" s="31"/>
-      <c r="CA2" s="30">
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="60"/>
+      <c r="BY2" s="60"/>
+      <c r="BZ2" s="60"/>
+      <c r="CA2" s="59">
         <v>8</v>
       </c>
-      <c r="CB2" s="31"/>
-      <c r="CC2" s="31"/>
-      <c r="CD2" s="31"/>
-      <c r="CE2" s="31"/>
-      <c r="CF2" s="31"/>
-      <c r="CG2" s="31"/>
-      <c r="CH2" s="31"/>
-      <c r="CI2" s="31"/>
-      <c r="CJ2" s="31"/>
-      <c r="CK2" s="31"/>
-      <c r="CL2" s="31"/>
-      <c r="CM2" s="31"/>
-      <c r="CN2" s="31"/>
-      <c r="CO2" s="31"/>
-      <c r="CP2" s="31"/>
-      <c r="CQ2" s="31"/>
-      <c r="CR2" s="31"/>
-      <c r="CS2" s="31"/>
-      <c r="CT2" s="31"/>
-      <c r="CU2" s="31"/>
-      <c r="CV2" s="31"/>
-      <c r="CW2" s="31"/>
-      <c r="CX2" s="31"/>
-      <c r="CY2" s="31"/>
-      <c r="CZ2" s="31"/>
-      <c r="DA2" s="31"/>
-      <c r="DB2" s="31"/>
-      <c r="DC2" s="31"/>
-      <c r="DD2" s="31"/>
-      <c r="DE2" s="30">
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="60"/>
+      <c r="CD2" s="60"/>
+      <c r="CE2" s="60"/>
+      <c r="CF2" s="60"/>
+      <c r="CG2" s="60"/>
+      <c r="CH2" s="60"/>
+      <c r="CI2" s="60"/>
+      <c r="CJ2" s="60"/>
+      <c r="CK2" s="60"/>
+      <c r="CL2" s="60"/>
+      <c r="CM2" s="60"/>
+      <c r="CN2" s="60"/>
+      <c r="CO2" s="60"/>
+      <c r="CP2" s="60"/>
+      <c r="CQ2" s="60"/>
+      <c r="CR2" s="60"/>
+      <c r="CS2" s="60"/>
+      <c r="CT2" s="60"/>
+      <c r="CU2" s="60"/>
+      <c r="CV2" s="60"/>
+      <c r="CW2" s="60"/>
+      <c r="CX2" s="60"/>
+      <c r="CY2" s="60"/>
+      <c r="CZ2" s="60"/>
+      <c r="DA2" s="60"/>
+      <c r="DB2" s="60"/>
+      <c r="DC2" s="60"/>
+      <c r="DD2" s="60"/>
+      <c r="DE2" s="59">
         <v>9</v>
       </c>
-      <c r="DF2" s="30"/>
-      <c r="DG2" s="30"/>
-      <c r="DH2" s="30"/>
-      <c r="DI2" s="30"/>
-      <c r="DJ2" s="30"/>
-      <c r="DK2" s="30"/>
-      <c r="DL2" s="30"/>
-      <c r="DM2" s="30"/>
-      <c r="DN2" s="30"/>
-      <c r="DO2" s="30"/>
-      <c r="DP2" s="30"/>
-      <c r="DQ2" s="30"/>
-      <c r="DR2" s="30"/>
+      <c r="DF2" s="59"/>
+      <c r="DG2" s="59"/>
+      <c r="DH2" s="59"/>
+      <c r="DI2" s="59"/>
+      <c r="DJ2" s="59"/>
+      <c r="DK2" s="59"/>
+      <c r="DL2" s="59"/>
+      <c r="DM2" s="59"/>
+      <c r="DN2" s="59"/>
+      <c r="DO2" s="59"/>
+      <c r="DP2" s="59"/>
+      <c r="DQ2" s="59"/>
+      <c r="DR2" s="59"/>
     </row>
     <row r="3" spans="1:122" s="26" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="20">
         <v>23</v>
       </c>
@@ -1804,16 +1804,16 @@
       </c>
     </row>
     <row r="4" spans="1:122" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
@@ -1930,26 +1930,26 @@
       <c r="DR4" s="20"/>
     </row>
     <row r="5" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="41">
         <v>1</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="42">
         <v>45069</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="42">
         <v>45071</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="43">
         <f t="shared" ref="H5:H19" si="0">DATEDIF(F5, G5, "D")+1</f>
         <v>3</v>
       </c>
@@ -2042,22 +2042,22 @@
       <c r="DR5" s="19"/>
     </row>
     <row r="6" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="41">
         <v>2</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="42">
         <v>45071</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="42">
         <v>45072</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2150,22 +2150,22 @@
       <c r="DR6" s="19"/>
     </row>
     <row r="7" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="41">
         <v>3</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="42">
         <v>45076</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="42">
         <v>45076</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2258,24 +2258,24 @@
       <c r="DR7" s="19"/>
     </row>
     <row r="8" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="41">
         <v>4</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="42">
         <v>45077</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="42">
         <v>45080</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2368,24 +2368,24 @@
       <c r="DR8" s="19"/>
     </row>
     <row r="9" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="41">
         <v>5</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="42">
         <v>45082</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="42">
         <v>45086</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2478,24 +2478,24 @@
       <c r="DR9" s="19"/>
     </row>
     <row r="10" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="41">
         <v>6</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="42">
         <v>45100</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="42">
         <v>45100</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2588,26 +2588,26 @@
       <c r="DR10" s="19"/>
     </row>
     <row r="11" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="44">
         <v>7</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="45">
         <v>45075</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="45">
         <v>45080</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="46">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2700,24 +2700,24 @@
       <c r="DR11" s="19"/>
     </row>
     <row r="12" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="44">
         <v>8</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="45">
         <v>45084</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="45">
         <v>45092</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2837,24 +2837,24 @@
       <c r="DR12" s="19"/>
     </row>
     <row r="13" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="63" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="44">
         <v>9</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="45">
         <v>45092</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="45">
         <v>45094</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2974,24 +2974,24 @@
       <c r="DR13" s="19"/>
     </row>
     <row r="14" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="63" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="44">
         <v>10</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="45">
         <v>45096</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="45">
         <v>45099</v>
       </c>
-      <c r="H14" s="65">
+      <c r="H14" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3111,26 +3111,26 @@
       <c r="DR14" s="19"/>
     </row>
     <row r="15" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="47">
         <v>11</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="48">
         <v>45092</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="48">
         <v>45093</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3250,24 +3250,24 @@
       <c r="DR15" s="19"/>
     </row>
     <row r="16" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="47">
         <v>12</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="48">
         <v>45088</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="48">
         <v>45091</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3387,24 +3387,24 @@
       <c r="DR16" s="19"/>
     </row>
     <row r="17" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="47">
         <v>13</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>35</v>
+      <c r="E17" s="47" t="s">
+        <v>45</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="48">
         <v>45092</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="48">
         <v>45095</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3524,24 +3524,24 @@
       <c r="DR17" s="19"/>
     </row>
     <row r="18" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="47">
         <v>14</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>39</v>
+      <c r="E18" s="47" t="s">
+        <v>37</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="48">
         <v>45089</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="48">
         <v>45092</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3661,24 +3661,24 @@
       <c r="DR18" s="19"/>
     </row>
     <row r="19" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="47">
         <v>15</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>40</v>
+      <c r="E19" s="47" t="s">
+        <v>38</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="48">
         <v>45094</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="48">
         <v>45096</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3798,16 +3798,16 @@
       <c r="DR19" s="19"/>
     </row>
     <row r="20" spans="1:122" s="18" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -3924,26 +3924,26 @@
       <c r="DR20" s="19"/>
     </row>
     <row r="21" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>44</v>
+      <c r="A21" s="50" t="s">
+        <v>42</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="29">
         <v>16</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="31">
         <v>45119</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="31">
         <v>45120</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="36">
         <f>DATEDIF(F21, G21, "D")+1</f>
         <v>2</v>
       </c>
@@ -4015,23 +4015,23 @@
       <c r="BV21" s="10"/>
     </row>
     <row r="22" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="38">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="32">
         <v>17</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="34">
         <v>45121</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="34">
         <v>45125</v>
       </c>
-      <c r="H22" s="48">
-        <f t="shared" ref="H21:H22" si="1">DATEDIF(F22, G22, "D")+1</f>
+      <c r="H22" s="36">
+        <f t="shared" ref="H22" si="1">DATEDIF(F22, G22, "D")+1</f>
         <v>5</v>
       </c>
       <c r="I22" s="1"/>
@@ -4102,22 +4102,22 @@
       <c r="BV22" s="10"/>
     </row>
     <row r="23" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="38">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="32">
         <v>18</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="34">
         <v>45126</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="34">
         <v>45128</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="36">
         <f>DATEDIF(F23, G23, "D")+1</f>
         <v>3</v>
       </c>
@@ -4188,23 +4188,23 @@
       <c r="BV23" s="10"/>
     </row>
     <row r="24" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="38">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="32">
         <v>19</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>42</v>
+      <c r="E24" s="33" t="s">
+        <v>40</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="34">
         <v>45131</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="34">
         <v>45135</v>
       </c>
-      <c r="H24" s="48">
-        <f t="shared" ref="H24:H35" si="2">DATEDIF(F24, G24, "D")+1</f>
+      <c r="H24" s="36">
+        <f t="shared" ref="H24:H33" si="2">DATEDIF(F24, G24, "D")+1</f>
         <v>5</v>
       </c>
       <c r="I24" s="1"/>
@@ -4273,22 +4273,22 @@
       <c r="BW24" s="23"/>
     </row>
     <row r="25" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="38">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="32">
         <v>20</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="34">
         <v>45131</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="34">
         <v>45131</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4360,22 +4360,22 @@
       <c r="BV25" s="10"/>
     </row>
     <row r="26" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="38">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="32">
         <v>21</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="34">
         <v>45138</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="34">
         <v>45139</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4447,22 +4447,22 @@
       <c r="CA26" s="24"/>
     </row>
     <row r="27" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="38">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="32">
         <v>22</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="34">
         <v>45138</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="34">
         <v>45138</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4535,22 +4535,22 @@
       <c r="CB27" s="24"/>
     </row>
     <row r="28" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="38">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="32">
         <v>23</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="34">
         <v>45140</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="34">
         <v>45140</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4621,22 +4621,22 @@
       <c r="CF28" s="24"/>
     </row>
     <row r="29" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="38">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="32">
         <v>24</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>36</v>
+      <c r="E29" s="33" t="s">
+        <v>44</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="34">
         <v>45141</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="34">
         <v>45144</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="36">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -4704,22 +4704,22 @@
       <c r="CG29" s="24"/>
     </row>
     <row r="30" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="38">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="32">
         <v>25</v>
       </c>
-      <c r="E30" s="41" t="s">
-        <v>37</v>
+      <c r="E30" s="35" t="s">
+        <v>35</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="34">
         <v>45145</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="34">
         <v>45145</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4786,22 +4786,22 @@
       <c r="CI30" s="24"/>
     </row>
     <row r="31" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="38">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="32">
         <v>26</v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>38</v>
+      <c r="E31" s="33" t="s">
+        <v>36</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="34">
         <v>45146</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="34">
         <v>45147</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4868,22 +4868,22 @@
       <c r="CK31" s="24"/>
     </row>
     <row r="32" spans="1:122" ht="19.5" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="38">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="32">
         <v>27</v>
       </c>
-      <c r="E32" s="39" t="s">
-        <v>41</v>
+      <c r="E32" s="33" t="s">
+        <v>39</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="34">
         <v>45148</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="34">
         <v>45149</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4966,22 +4966,22 @@
       <c r="DA32" s="28"/>
     </row>
     <row r="33" spans="1:67" ht="19.5" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="49">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="37">
         <v>28</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>43</v>
+      <c r="E33" s="38" t="s">
+        <v>41</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="39">
         <v>45148</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="39">
         <v>45160</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="40">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -70597,6 +70597,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="A21:B33"/>
     <mergeCell ref="C21:C33"/>
     <mergeCell ref="AV2:BZ2"/>
@@ -70613,11 +70618,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:B10"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
